--- a/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1o1oyYuEQV_你是否记得 刺客信条最好的模样刺客信条2完全鉴赏  Leya蕾雅_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1o1oyYuEQV_你是否记得 刺客信条最好的模样刺客信条2完全鉴赏  Leya蕾雅_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="199">
   <si>
     <t>bvid</t>
   </si>
@@ -46,34 +46,205 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1o1oyYuEQV</t>
   </si>
   <si>
-    <t>8268987</t>
-  </si>
-  <si>
     <t>Haloes</t>
   </si>
   <si>
+    <t>第五元素__</t>
+  </si>
+  <si>
+    <t>墨雨阿-</t>
+  </si>
+  <si>
+    <t>Acadia689</t>
+  </si>
+  <si>
+    <t>独孤笑羽</t>
+  </si>
+  <si>
+    <t>17173妖气山</t>
+  </si>
+  <si>
+    <t>让音乐治愈我</t>
+  </si>
+  <si>
+    <t>基尔陀</t>
+  </si>
+  <si>
+    <t>Cystalの</t>
+  </si>
+  <si>
+    <t>大狸子切切里</t>
+  </si>
+  <si>
+    <t>TK_Burink</t>
+  </si>
+  <si>
+    <t>虹夏的悬浮呆毛</t>
+  </si>
+  <si>
+    <t>成都第一包子-</t>
+  </si>
+  <si>
+    <t>还得是KTM</t>
+  </si>
+  <si>
+    <t>玩eve的叶子</t>
+  </si>
+  <si>
+    <t>Phoenicianz</t>
+  </si>
+  <si>
+    <t>龍狗儿</t>
+  </si>
+  <si>
+    <t>33娘离家出走</t>
+  </si>
+  <si>
+    <t>柏曼八古夫</t>
+  </si>
+  <si>
+    <t>関七七</t>
+  </si>
+  <si>
+    <t>种花的家兔</t>
+  </si>
+  <si>
+    <t>fyw1223</t>
+  </si>
+  <si>
+    <t>圣天左徒</t>
+  </si>
+  <si>
+    <t>柴不哩</t>
+  </si>
+  <si>
+    <t>这少年不太冷</t>
+  </si>
+  <si>
+    <t>Pathfinder_Sol</t>
+  </si>
+  <si>
+    <t>桐綺千棘</t>
+  </si>
+  <si>
+    <t>zZiiYanG</t>
+  </si>
+  <si>
+    <t>你发的什么鬼东西</t>
+  </si>
+  <si>
+    <t>红染望</t>
+  </si>
+  <si>
+    <t>临尘</t>
+  </si>
+  <si>
+    <t>白昼之雪-</t>
+  </si>
+  <si>
+    <t>丶醉落谁家</t>
+  </si>
+  <si>
+    <t>Dahee大大熙</t>
+  </si>
+  <si>
+    <t>dgopm</t>
+  </si>
+  <si>
+    <t>精准fupin</t>
+  </si>
+  <si>
+    <t>海之律者的丈夫</t>
+  </si>
+  <si>
+    <t>Sen-Ketsu</t>
+  </si>
+  <si>
+    <t>没有ezio的刺客信条</t>
+  </si>
+  <si>
+    <t>八雲醉</t>
+  </si>
+  <si>
+    <t>the44thsunset</t>
+  </si>
+  <si>
+    <t>海原sorano</t>
+  </si>
+  <si>
+    <t>绅士米唐</t>
+  </si>
+  <si>
+    <t>棍还是棒</t>
+  </si>
+  <si>
+    <t>JrHex</t>
+  </si>
+  <si>
+    <t>低保别黑啊</t>
+  </si>
+  <si>
+    <t>少侠好臂力哇咔咔</t>
+  </si>
+  <si>
+    <t>温文尔雅微笑哥</t>
+  </si>
+  <si>
+    <t>风吹八万里</t>
+  </si>
+  <si>
+    <t>么么伽萨么</t>
+  </si>
+  <si>
+    <t>Freezing-J</t>
+  </si>
+  <si>
+    <t>阿航22</t>
+  </si>
+  <si>
+    <t>积极不逃避</t>
+  </si>
+  <si>
+    <t>江郎才尽233</t>
+  </si>
+  <si>
+    <t>爷永远喜欢JK触发器</t>
+  </si>
+  <si>
+    <t>睡不醒的特摄螃蟹</t>
+  </si>
+  <si>
+    <t>嗯嗯啊啊9999</t>
+  </si>
+  <si>
+    <t>小菜_C</t>
+  </si>
+  <si>
+    <t>是隔壁的好孩子丶</t>
+  </si>
+  <si>
+    <t>屋顶的萝卜丝</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
+    <t>保密</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>看看生化危机 再看看刺客信条  育碧是真拉啊  不如重置一下艾吉奥三部曲</t>
-  </si>
-  <si>
-    <t>2025-03-27 12:19:44</t>
-  </si>
-  <si>
-    <t>234232043</t>
-  </si>
-  <si>
-    <t>第五元素__</t>
-  </si>
-  <si>
-    <t>保密</t>
   </si>
   <si>
     <t>很幸运，刺客信条2是我完整走流程通关的第一款3A游戏，至今回想起来仍能记得波澜壮阔的剧情和别出心裁的游戏玩法，带来的记忆点甚至比近两年玩的起源奥德赛英灵殿更加深刻。
@@ -81,37 +252,10 @@
 "And may it never change us"</t>
   </si>
   <si>
-    <t>2025-03-27 12:19:10</t>
-  </si>
-  <si>
-    <t>320036089</t>
-  </si>
-  <si>
-    <t>墨雨阿-</t>
-  </si>
-  <si>
     <t>我是单纯喜欢刺客这个ip除了三部曲的操作我不习惯没玩之外，其他我都玩了通关（除了英灵殿），不在意是否是所谓的罐头，不在意质量，只要是刺客我就玩[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-27 10:30:38</t>
-  </si>
-  <si>
-    <t>180777180</t>
-  </si>
-  <si>
-    <t>Acadia689</t>
-  </si>
-  <si>
     <t>刺客信条1,2,3,4都玩过，都没通关，4代玩得最久，后面也感觉无聊了，烂尾了，只有大革命通关了，因为男女主能看</t>
-  </si>
-  <si>
-    <t>2025-03-27 10:12:06</t>
-  </si>
-  <si>
-    <t>33460388</t>
-  </si>
-  <si>
-    <t>独孤笑羽</t>
   </si>
   <si>
     <t>哎 对我来说最好的模样是黑旗 就是起源给我的印象也比2代原版好 三部曲我最喜欢的是兄弟会
@@ -119,546 +263,138 @@
 2代的找羽毛任务 找吐了给我</t>
   </si>
   <si>
-    <t>2025-03-27 09:47:45</t>
-  </si>
-  <si>
-    <t>680417</t>
-  </si>
-  <si>
-    <t>17173妖气山</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
     <t>这期视频实在是太棒了！</t>
   </si>
   <si>
-    <t>2025-03-27 08:57:40</t>
-  </si>
-  <si>
-    <t>15424311</t>
-  </si>
-  <si>
-    <t>让音乐治愈我</t>
-  </si>
-  <si>
     <t>我是09年玩的第一部 接着玩的第二部.. 当时配置很低 内存只有两个g  第三代出来的时候要求四个g 第一次升级了配置    从第一代玩过来喜欢这个系列的玩家，不可能不被当年的艾吉奥三部曲惊艳到 玩法剧情的全面革新  最重要的是 有了中文字幕[笑哭][笑哭]对我来说二代就是整个系列无法逾越的巅峰  也是整个系列的奠基之作，剧情也是神中神，现代线和古代线的交互也做得很棒，不像现在现代线已经完全摆烂了，感觉自从把戴斯蒙写死以后现代线就乱了，剧情也很难评..可能是育碧把艾吉奥塑造的过于饱满立体 后来还补了一部动画短片，让艾吉奥晚年遇到邵云完成信条的传承，也让玩家见证了艾吉奥的开始和结束.这种对比之下其它的角色就显得有点单薄了，再加上现代线的混乱，再也找不到当时那种游玩的深刻印象和代入感了，感觉戴斯蒙真的不该写死的..现代线的戴斯蒙死了以后剧情就全乱了</t>
   </si>
   <si>
-    <t>2025-03-27 07:44:46</t>
-  </si>
-  <si>
-    <t>701915209</t>
-  </si>
-  <si>
-    <t>基尔陀</t>
-  </si>
-  <si>
     <t>我记得，我每天都能梦见佛罗伦萨，君士但丁堡，我甚至在梦里害怕在这些地方死去，或者永远被困在里面，没办法醒来，我居然会在和平年代担心会不会在游玩中死去？这就是刺客信条2给我的沉浸感，让我更加想活下去，那种无比膨胀，更极端的想活下去。</t>
   </si>
   <si>
-    <t>2025-03-27 07:18:50</t>
-  </si>
-  <si>
-    <t>30337039</t>
-  </si>
-  <si>
-    <t>Cystalの</t>
-  </si>
-  <si>
     <t>刷到这个视频的时候正在玩这个游戏</t>
   </si>
   <si>
-    <t>2025-03-27 06:48:28</t>
-  </si>
-  <si>
-    <t>471303350</t>
-  </si>
-  <si>
-    <t>大狸子切切里</t>
-  </si>
-  <si>
     <t>曾经的刺客太经典了，我终于想起来为什么我这么想去意大利旅游了[大哭]</t>
   </si>
   <si>
-    <t>2025-03-27 05:54:41</t>
-  </si>
-  <si>
-    <t>19209106</t>
-  </si>
-  <si>
-    <t>TK_Burink</t>
-  </si>
-  <si>
     <t>怎么说呢，其实现代剧情线一直在跟随现实时间在往下继续写，只不过不再拿到游戏中摆上台面了。漫画，小说，周边，桌游等等等等一直在向下推进。比如团结里的凤凰计划需要枭雄结局的裹尸布用于复活朱诺，而朱诺复活后却被漫画中的主角夏洛克一袖剑捅死了，这些只有漫画中才解释，在漫画里也有一定的吃书比如夏洛克小队所有人在想办法解决朱诺时光之山钻石这个伊甸碎片被戴斯蒙的私生子带走了。以及后续很多内容在游戏资料库也有记录。比如瑞贝卡和肖恩结婚度蜜月，刺客信条电影阿布斯泰戈的女千金偷窃蕾拉的技术做了电影版法鲨用的anmais，英灵殿用艾沃尔神话视角理解的伊述人内战，和密涅瓦留下影像的过程和艾吉奥的回复.....很多现代线都被略过了也是很遗憾。</t>
   </si>
   <si>
-    <t>2025-03-27 04:21:28</t>
-  </si>
-  <si>
-    <t>99019960</t>
-  </si>
-  <si>
-    <t>虹夏的悬浮呆毛</t>
-  </si>
-  <si>
     <t>有点受不了这种如同被牛了却什么也做不了的无力感。</t>
-  </si>
-  <si>
-    <t>2025-03-27 03:05:28</t>
-  </si>
-  <si>
-    <t>3151041</t>
-  </si>
-  <si>
-    <t>成都第一包子-</t>
   </si>
   <si>
     <t>有趣的是 现在的刺客信条粉丝群体对2代这部巅峰之作反而有一种迷之敌意[嗑瓜子]
 只要你敢在贴吧表示2代是AC系列的巅峰，就会被归类于遗老或者2代小鬼</t>
   </si>
   <si>
-    <t>2025-03-27 02:44:29</t>
-  </si>
-  <si>
-    <t>95722229</t>
-  </si>
-  <si>
-    <t>还得是KTM</t>
-  </si>
-  <si>
     <t>我的第一部刺客信条是兄弟会，对于一个十四岁的少年一直以为艾吉奥是真人真事[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-27 02:44:23</t>
-  </si>
-  <si>
-    <t>23138689</t>
-  </si>
-  <si>
-    <t>玩eve的叶子</t>
-  </si>
-  <si>
     <t>重置包给改成正确的</t>
   </si>
   <si>
-    <t>2025-03-27 02:40:52</t>
-  </si>
-  <si>
-    <t>306752</t>
-  </si>
-  <si>
-    <t>Phoenicianz</t>
-  </si>
-  <si>
     <t>1是最美的[大哭][大哭][大哭]</t>
   </si>
   <si>
-    <t>2025-03-27 02:15:17</t>
-  </si>
-  <si>
-    <t>6250704</t>
-  </si>
-  <si>
-    <t>龍狗儿</t>
-  </si>
-  <si>
     <t>在我心中黑旗爱德华一家的故事和艾吉奥三部曲一样精彩。</t>
-  </si>
-  <si>
-    <t>2025-03-26 23:59:30</t>
-  </si>
-  <si>
-    <t>160159826</t>
-  </si>
-  <si>
-    <t>33娘离家出走</t>
   </si>
   <si>
     <t>那时候的刺客信条不是两条线，是三条线。亚当夏娃伊述人是单独的一条线。每条线都非常精彩。
 神话三部曲那个现代主角醒来只能看那个b邮件，无聊的要死。</t>
   </si>
   <si>
-    <t>2025-03-26 23:18:34</t>
-  </si>
-  <si>
-    <t>109120641</t>
-  </si>
-  <si>
-    <t>柏曼八古夫</t>
-  </si>
-  <si>
     <t>最喜欢黑旗了[大哭][大哭]</t>
   </si>
   <si>
-    <t>2025-03-26 23:02:41</t>
-  </si>
-  <si>
-    <t>88210439</t>
-  </si>
-  <si>
-    <t>関七七</t>
-  </si>
-  <si>
     <t>当时只顾着玩波斯王子和古墓丽影去了，我是枭雄入的坑[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-26 22:29:06</t>
-  </si>
-  <si>
-    <t>399351208</t>
-  </si>
-  <si>
-    <t>种花的家兔</t>
-  </si>
-  <si>
     <t>刺客信条二的卓越之处就在于他的故事写的非常的棒，故事的意义是什么？故事是因为什么而存在的？故事不单单只是记录历史，故事的意义更多的是要阐述这其中蕴含的道理，哲学和思辨的道理。通过一个历史背景，用一种故事的形式把要表达的意思，并且这个要表达的意思还是那种有深度的哲学性的思想，把它表达的很完美。或许刺客信条二在游戏性上有不足之处，在画面上没法和现今的游戏相媲美。但是他确实是讲了一个非常棒的故事，以一种游戏的形式，把一个有艺术美感的故事具象化了。</t>
   </si>
   <si>
-    <t>2025-03-26 22:22:09</t>
-  </si>
-  <si>
-    <t>37778089</t>
-  </si>
-  <si>
-    <t>fyw1223</t>
-  </si>
-  <si>
     <t>为了这个，我专门下载了steam买了正版。哪怕我不玩我也要买他。</t>
   </si>
   <si>
-    <t>2025-03-26 22:05:17</t>
-  </si>
-  <si>
-    <t>430425871</t>
-  </si>
-  <si>
-    <t>圣天左徒</t>
-  </si>
-  <si>
     <t>刺客信条2适合手残党吗？用PS5玩刺客信条2，追不上哥哥怎么办[大哭]</t>
   </si>
   <si>
-    <t>2025-03-26 21:39:35</t>
-  </si>
-  <si>
-    <t>65231885</t>
-  </si>
-  <si>
-    <t>柴不哩</t>
-  </si>
-  <si>
     <t>小时候在游戏盒看到刺客信条兄弟会就下载试了试，结果很快就被它迷住了，当时对剧情印象不是很深，主要就是觉得主角很酷，后来大学接触了steam给刺客系列补票。由于1没中文没字幕，就着生肉硬是把1打完然后就是按顺序一部一部玩下去，艾吉奥三部曲让我看完了艾吉奥的一生，给我印象最深。后面几部虽然没让我再有玩艾吉奥三部曲的感觉了但也还是觉得不错。后作目前买到了起源这一部为止，还没打完。剩下几部还没买，以后再说</t>
   </si>
   <si>
-    <t>2025-03-26 21:11:57</t>
-  </si>
-  <si>
-    <t>101683323</t>
-  </si>
-  <si>
-    <t>这少年不太冷</t>
-  </si>
-  <si>
     <t>育碧啥时候聪明点出重制版？保证销量超过神话三部曲</t>
   </si>
   <si>
-    <t>2025-03-26 21:02:05</t>
-  </si>
-  <si>
-    <t>2090933</t>
-  </si>
-  <si>
-    <t>Pathfinder_Sol</t>
-  </si>
-  <si>
     <t>玩1+二代三部曲的时候才初中，拿着生肉硬啃，英语水平因此有了十足的长进[笑哭]不得不说10年前后神作佳作太多了，真的是我单机游戏的启蒙年代啊</t>
   </si>
   <si>
-    <t>2025-03-26 20:49:56</t>
-  </si>
-  <si>
-    <t>2800634</t>
-  </si>
-  <si>
-    <t>桐綺千棘</t>
-  </si>
-  <si>
     <t>育碧的技术越来越精进，创意和写故事的能力却越来越差，那群DEI的玩意真是该死啊</t>
   </si>
   <si>
-    <t>2025-03-26 20:42:55</t>
-  </si>
-  <si>
-    <t>594250</t>
-  </si>
-  <si>
-    <t>zZiiYanG</t>
-  </si>
-  <si>
     <t>当时去佛罗伦萨就有这种感觉，这地方。。。好熟悉，我好像来过。。。一种非常奇怪的，熟悉又陌生的感觉。。。</t>
   </si>
   <si>
-    <t>2025-03-26 20:39:24</t>
-  </si>
-  <si>
-    <t>241904392</t>
-  </si>
-  <si>
-    <t>你发的什么鬼东西</t>
-  </si>
-  <si>
     <t>我也算是传奇赤石大王了，我把刺客神话三部曲+全DLC剧情都通了。地图上的罐头可能没开完，但剧情这块确实挺吸引我的，尤其是奥德赛里打啊米诺斯美杜莎那些，还能去伊述人的老家溜达。</t>
   </si>
   <si>
-    <t>2025-03-26 19:52:02</t>
-  </si>
-  <si>
-    <t>128798482</t>
-  </si>
-  <si>
-    <t>红染望</t>
-  </si>
-  <si>
     <t>2代算是我的3a启蒙了，很庆幸初中时能在图书馆借到一本刺客信条小说，再在电脑上玩到艾吉奥三部曲，真的是被剧情吸引去玩原作的。</t>
   </si>
   <si>
-    <t>2025-03-26 19:41:36</t>
-  </si>
-  <si>
-    <t>2490650</t>
-  </si>
-  <si>
-    <t>临尘</t>
-  </si>
-  <si>
     <t>艾吉奥真的是最喜欢的一代，剧情这么多年了都记得</t>
   </si>
   <si>
-    <t>2025-03-26 19:30:04</t>
-  </si>
-  <si>
-    <t>76748307</t>
-  </si>
-  <si>
-    <t>白昼之雪-</t>
-  </si>
-  <si>
     <t>刺客信条的公式化罐头从枭雄就已经开始有点内味，有人说从2开始的就很搞笑[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-26 18:53:06</t>
-  </si>
-  <si>
-    <t>11171654</t>
-  </si>
-  <si>
-    <t>丶醉落谁家</t>
-  </si>
-  <si>
     <t>一人催更兄弟会，启示录[doge]</t>
   </si>
   <si>
-    <t>2025-03-26 18:52:49</t>
-  </si>
-  <si>
-    <t>20734156</t>
-  </si>
-  <si>
-    <t>Dahee大大熙</t>
-  </si>
-  <si>
     <t>09年二代三部曲入坑，太幸运了，19年10月去看了育碧官方的音乐会，只要二代E叔三部曲尚在，系列已有巅峰</t>
   </si>
   <si>
-    <t>2025-03-26 18:51:22</t>
-  </si>
-  <si>
-    <t>314859812</t>
-  </si>
-  <si>
-    <t>dgopm</t>
-  </si>
-  <si>
     <t>不知道这样类比对不对，影的弥助可能类似于唐玄宗时代一个受赏识成为了禁卫军的胡人，而且还是贴身侍卫，马嵬坡兵变是他射倒了杨国忠，而且他还和杨贵妃或其他什么唐皇室公主有恋爱关系，暗示了唐皇室其实可能带有西域人的血统</t>
   </si>
   <si>
-    <t>2025-03-26 18:42:13</t>
-  </si>
-  <si>
-    <t>472340421</t>
-  </si>
-  <si>
-    <t>精准fupin</t>
-  </si>
-  <si>
     <t>bro是当初看小宅的实况才入的刺客信条坑</t>
   </si>
   <si>
-    <t>2025-03-26 18:21:56</t>
-  </si>
-  <si>
-    <t>1715161738</t>
-  </si>
-  <si>
-    <t>海之律者的丈夫</t>
-  </si>
-  <si>
     <t>罗莎原定是艾吉奥的老婆？</t>
   </si>
   <si>
-    <t>2025-03-26 17:11:51</t>
-  </si>
-  <si>
-    <t>34570829</t>
-  </si>
-  <si>
-    <t>Sen-Ketsu</t>
-  </si>
-  <si>
     <t>黑旗是我玩的最好玩的一部了，而枭雄是我的最后一部ac，后面几部就再难提起兴趣了[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-26 16:44:25</t>
-  </si>
-  <si>
-    <t>11933047</t>
-  </si>
-  <si>
-    <t>没有ezio的刺客信条</t>
-  </si>
-  <si>
     <t>我ID10年了。。。</t>
   </si>
   <si>
-    <t>2025-03-26 16:41:11</t>
-  </si>
-  <si>
-    <t>488371</t>
-  </si>
-  <si>
-    <t>八雲醉</t>
-  </si>
-  <si>
     <t>AC2对于后代刺客作品还有个最大的贡献 Ezio's Family</t>
   </si>
   <si>
-    <t>2025-03-26 16:30:36</t>
-  </si>
-  <si>
-    <t>23643593</t>
-  </si>
-  <si>
-    <t>the44thsunset</t>
-  </si>
-  <si>
     <t>公式化就是从2开始的</t>
   </si>
   <si>
-    <t>2025-03-26 15:32:49</t>
-  </si>
-  <si>
-    <t>2487276</t>
-  </si>
-  <si>
-    <t>海原sorano</t>
-  </si>
-  <si>
     <t>刺客信条2是我当初上学时的“年轻人第一款3A游戏”，在我这算是白月光了</t>
   </si>
   <si>
-    <t>2025-03-26 15:20:27</t>
-  </si>
-  <si>
-    <t>2548565</t>
-  </si>
-  <si>
-    <t>绅士米唐</t>
-  </si>
-  <si>
     <t>二代的牛逼程度，得带上一代一起看。一代到二代的进步是剧情画面玩法全方位升级。是系列永远的白月光。</t>
   </si>
   <si>
-    <t>2025-03-26 15:18:01</t>
-  </si>
-  <si>
-    <t>3552680</t>
-  </si>
-  <si>
-    <t>棍还是棒</t>
-  </si>
-  <si>
     <t>我特别喜欢刺客信条2展现Animus构建城市的设计非常有仪式感和《阿凡达》第一部人类进入阿凡达有异曲同工之处，人在现实和“记忆”来回穿梭，而且刺客信条2充满了大量几何学图案来展现animus起到分割现实和“记忆”，不知道为什么育碧后面弱化了这两种设计，更倾向常规的游戏设计，弱化了穿越设定导致现代部分显得鸡肋，给我的感觉大概早期刺客信条类似《阿凡达1》，越后期越像《阿凡达2》。</t>
   </si>
   <si>
-    <t>2025-03-26 15:02:27</t>
-  </si>
-  <si>
-    <t>133098313</t>
-  </si>
-  <si>
-    <t>JrHex</t>
-  </si>
-  <si>
     <t>重置2代三部曲，只优化画质、人物动作就行，文本和剧情一个字都不要动。因为现在的育碧确实没优化剧本的水平，而且2代的剧情已经完美了。要能这样重置一轮，肯定能卖爆。</t>
   </si>
   <si>
-    <t>2025-03-26 14:52:10</t>
-  </si>
-  <si>
-    <t>383384104</t>
-  </si>
-  <si>
-    <t>低保别黑啊</t>
-  </si>
-  <si>
     <t>这故事蓝本就是修格斯。</t>
   </si>
   <si>
-    <t>2025-03-26 14:47:23</t>
-  </si>
-  <si>
-    <t>24117502</t>
-  </si>
-  <si>
-    <t>少侠好臂力哇咔咔</t>
-  </si>
-  <si>
     <t>怀念啊，之前家里的电脑只是个750的1g版本，竟然打通了三部曲加第三部，用着1280分辨率不到60帧玩通了</t>
   </si>
   <si>
-    <t>2025-03-26 14:45:01</t>
-  </si>
-  <si>
-    <t>16114125</t>
-  </si>
-  <si>
-    <t>温文尔雅微笑哥</t>
-  </si>
-  <si>
     <t>艾吉奥三部曲 爷儿孙（雪姨）诺亚 我心中最好的刺客信条作品 其他都没玩过了</t>
   </si>
   <si>
-    <t>2025-03-26 14:38:56</t>
-  </si>
-  <si>
-    <t>39341486</t>
-  </si>
-  <si>
-    <t>风吹八万里</t>
-  </si>
-  <si>
     <t>期待兄弟会！[蹲蹲][蹲蹲]</t>
-  </si>
-  <si>
-    <t>2025-03-26 14:24:25</t>
-  </si>
-  <si>
-    <t>10719369</t>
-  </si>
-  <si>
-    <t>么么伽萨么</t>
   </si>
   <si>
     <t>为什么大家总是不会去关注初代，官方也迟迟不推出中文字幕，个人认为这才是最 刺客 的一代。
@@ -666,136 +402,240 @@
 我不理解艾吉奥为什么受那么多人的赞赏，剧情从大家变成了小家，性格不讨喜（个人认为），人物成长靠时间硬推，以上其实都可以认为是编剧的锅。游戏性上其实更适合新人接触，属于加分项，奠定了罐头玩法的基础，但是那个支线刺杀任务真的是又臭又长…虽说废话那么多，还是会做全系列收集和成就的[给心心]</t>
   </si>
   <si>
-    <t>2025-03-26 14:09:21</t>
-  </si>
-  <si>
-    <t>39765853</t>
-  </si>
-  <si>
-    <t>Freezing-J</t>
-  </si>
-  <si>
     <t>当年玩刺客信条2是真的上头，读高中，两个星期回家一次，还是全英文版，各种查字典，看视频，磕磕绊绊的玩完了。虽然没有完全理解游戏，但还是觉得好牛逼[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-26 13:46:52</t>
-  </si>
-  <si>
-    <t>8863586</t>
-  </si>
-  <si>
-    <t>阿航22</t>
-  </si>
-  <si>
     <t>庆幸这是自己玩的第一部刺客信条</t>
   </si>
   <si>
-    <t>2025-03-26 13:30:29</t>
-  </si>
-  <si>
-    <t>602225217</t>
-  </si>
-  <si>
-    <t>积极不逃避</t>
-  </si>
-  <si>
     <t>刺客信条不应该有数据，这都是开放世界才应该有的，刺客信条也不应该搞什么开放世界，完全没必要，讲好故事比什么都重要</t>
   </si>
   <si>
-    <t>2025-03-26 13:24:09</t>
-  </si>
-  <si>
-    <t>498940354</t>
-  </si>
-  <si>
-    <t>江郎才尽233</t>
-  </si>
-  <si>
     <t>如果刺客信条，以后的作品能模仿一下，模访影之刃零的一部分战斗风就好了，敌人不是傻呆呆的一个一个上，的回合制，而是正面碰上的和主角见招拆招，刺杀不变，那样会不会战斗趣味上升一个台阶呢</t>
-  </si>
-  <si>
-    <t>2025-03-26 13:19:13</t>
-  </si>
-  <si>
-    <t>24368220</t>
-  </si>
-  <si>
-    <t>爷永远喜欢JK触发器</t>
   </si>
   <si>
     <t>玩刺客信条二之前，游戏基本上我是不怎么看剧情的，但是刺客信条二他剧情不能跳过，一开始就硬着头皮看了，但没想到剧情越看越有意思，这时候我也意识到原来游戏的剧情也可以写的这么好（以前玩的都是一些剧情无关紧要的游戏）。
 也是在这之后，我玩游戏基本上就不跳剧情了，甚至都有强迫症了。</t>
   </si>
   <si>
+    <t>我玩奥德赛就玩不进去，弃坑两次。但是三部曲式真好玩，但确实也是公式化的开始，玩到启示录时其实就已经有乏味的感觉了，不是情据点就是跟踪暗杀，感觉任务流程设计毫无创新，要不是剧情驱动我真的玩不下去。</t>
+  </si>
+  <si>
+    <t>快更，快更，</t>
+  </si>
+  <si>
+    <t>刺客信条艾吉奥三部曲，至今都是AC的巅峰，唯一能超越艾吉奥三部曲的可能就是艾吉奥三部曲完全重制版</t>
+  </si>
+  <si>
+    <t>麻烦问下刺客信条2，玩法现在玩过时很多吗[笑哭]，很想入坑，但是怕被玩法和画质劝退。</t>
+  </si>
+  <si>
+    <t>每出一部新刺客都会有人提到怀念2代三部曲，真是绕不开啊</t>
+  </si>
+  <si>
+    <t>2025-03-27 12:19:44</t>
+  </si>
+  <si>
+    <t>2025-03-27 12:19:10</t>
+  </si>
+  <si>
+    <t>2025-03-27 10:30:38</t>
+  </si>
+  <si>
+    <t>2025-03-27 10:12:06</t>
+  </si>
+  <si>
+    <t>2025-03-27 09:47:45</t>
+  </si>
+  <si>
+    <t>2025-03-27 08:57:40</t>
+  </si>
+  <si>
+    <t>2025-03-27 07:44:46</t>
+  </si>
+  <si>
+    <t>2025-03-27 07:18:50</t>
+  </si>
+  <si>
+    <t>2025-03-27 06:48:28</t>
+  </si>
+  <si>
+    <t>2025-03-27 05:54:41</t>
+  </si>
+  <si>
+    <t>2025-03-27 04:21:28</t>
+  </si>
+  <si>
+    <t>2025-03-27 03:05:28</t>
+  </si>
+  <si>
+    <t>2025-03-27 02:44:29</t>
+  </si>
+  <si>
+    <t>2025-03-27 02:44:23</t>
+  </si>
+  <si>
+    <t>2025-03-27 02:40:52</t>
+  </si>
+  <si>
+    <t>2025-03-27 02:15:17</t>
+  </si>
+  <si>
+    <t>2025-03-26 23:59:30</t>
+  </si>
+  <si>
+    <t>2025-03-26 23:18:34</t>
+  </si>
+  <si>
+    <t>2025-03-26 23:02:41</t>
+  </si>
+  <si>
+    <t>2025-03-26 22:29:06</t>
+  </si>
+  <si>
+    <t>2025-03-26 22:22:09</t>
+  </si>
+  <si>
+    <t>2025-03-26 22:05:17</t>
+  </si>
+  <si>
+    <t>2025-03-26 21:39:35</t>
+  </si>
+  <si>
+    <t>2025-03-26 21:11:57</t>
+  </si>
+  <si>
+    <t>2025-03-26 21:02:05</t>
+  </si>
+  <si>
+    <t>2025-03-26 20:49:56</t>
+  </si>
+  <si>
+    <t>2025-03-26 20:42:55</t>
+  </si>
+  <si>
+    <t>2025-03-26 20:39:24</t>
+  </si>
+  <si>
+    <t>2025-03-26 19:52:02</t>
+  </si>
+  <si>
+    <t>2025-03-26 19:41:36</t>
+  </si>
+  <si>
+    <t>2025-03-26 19:30:04</t>
+  </si>
+  <si>
+    <t>2025-03-26 18:53:06</t>
+  </si>
+  <si>
+    <t>2025-03-26 18:52:49</t>
+  </si>
+  <si>
+    <t>2025-03-26 18:51:22</t>
+  </si>
+  <si>
+    <t>2025-03-26 18:42:13</t>
+  </si>
+  <si>
+    <t>2025-03-26 18:21:56</t>
+  </si>
+  <si>
+    <t>2025-03-26 17:11:51</t>
+  </si>
+  <si>
+    <t>2025-03-26 16:44:25</t>
+  </si>
+  <si>
+    <t>2025-03-26 16:41:11</t>
+  </si>
+  <si>
+    <t>2025-03-26 16:30:36</t>
+  </si>
+  <si>
+    <t>2025-03-26 15:32:49</t>
+  </si>
+  <si>
+    <t>2025-03-26 15:20:27</t>
+  </si>
+  <si>
+    <t>2025-03-26 15:18:01</t>
+  </si>
+  <si>
+    <t>2025-03-26 15:02:27</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:52:10</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:47:23</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:45:01</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:38:56</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:24:25</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:09:21</t>
+  </si>
+  <si>
+    <t>2025-03-26 13:46:52</t>
+  </si>
+  <si>
+    <t>2025-03-26 13:30:29</t>
+  </si>
+  <si>
+    <t>2025-03-26 13:24:09</t>
+  </si>
+  <si>
+    <t>2025-03-26 13:19:13</t>
+  </si>
+  <si>
     <t>2025-03-26 12:45:36</t>
   </si>
   <si>
-    <t>514813023</t>
-  </si>
-  <si>
-    <t>睡不醒的特摄螃蟹</t>
-  </si>
-  <si>
-    <t>我玩奥德赛就玩不进去，弃坑两次。但是三部曲式真好玩，但确实也是公式化的开始，玩到启示录时其实就已经有乏味的感觉了，不是情据点就是跟踪暗杀，感觉任务流程设计毫无创新，要不是剧情驱动我真的玩不下去。</t>
-  </si>
-  <si>
     <t>2025-03-26 12:43:51</t>
   </si>
   <si>
-    <t>645843277</t>
-  </si>
-  <si>
-    <t>嗯嗯啊啊9999</t>
-  </si>
-  <si>
-    <t>快更，快更，</t>
-  </si>
-  <si>
     <t>2025-03-26 12:40:07</t>
   </si>
   <si>
-    <t>356218650</t>
-  </si>
-  <si>
-    <t>小菜_C</t>
-  </si>
-  <si>
-    <t>刺客信条艾吉奥三部曲，至今都是AC的巅峰，唯一能超越艾吉奥三部曲的可能就是艾吉奥三部曲完全重制版</t>
-  </si>
-  <si>
     <t>2025-03-26 12:07:38</t>
   </si>
   <si>
-    <t>81454025</t>
-  </si>
-  <si>
-    <t>是隔壁的好孩子丶</t>
-  </si>
-  <si>
-    <t>麻烦问下刺客信条2，玩法现在玩过时很多吗[笑哭]，很想入坑，但是怕被玩法和画质劝退。</t>
-  </si>
-  <si>
     <t>2025-03-26 11:50:06</t>
   </si>
   <si>
-    <t>385450687</t>
-  </si>
-  <si>
-    <t>屋顶的萝卜丝</t>
-  </si>
-  <si>
-    <t>每出一部新刺客都会有人提到怀念2代三部曲，真是绕不开啊</t>
-  </si>
-  <si>
     <t>2025-03-26 11:49:09</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>中性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -811,7 +651,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -819,12 +659,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,1962 +977,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>257988942145</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>8268987</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258805447984</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>234232043</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>257981863249</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>320036089</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257980801633</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>180777180</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>257979401121</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>33460388</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>258792794704</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>680417</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>258789695200</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
+      <c r="C8">
+        <v>15424311</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>258788929888</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
+      <c r="C9">
+        <v>701915209</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>258788118784</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
+      <c r="C10">
+        <v>30337039</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>257971569649</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
+      <c r="C11">
+        <v>471303350</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>258786332512</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
+      <c r="C12">
+        <v>19209106</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>257969402369</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
+      <c r="C13">
+        <v>99019960</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>258784632608</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
+      <c r="C14">
+        <v>3151041</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>258784532400</v>
       </c>
-      <c r="C15" t="s">
-        <v>67</v>
+      <c r="C15">
+        <v>95722229</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>257968967601</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
+      <c r="C16">
+        <v>23138689</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>257968221825</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
+      <c r="C17">
+        <v>306752</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>258776787024</v>
       </c>
-      <c r="C18" t="s">
-        <v>79</v>
+      <c r="C18">
+        <v>6250704</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>258773428512</v>
       </c>
-      <c r="C19" t="s">
-        <v>83</v>
+      <c r="C19">
+        <v>160159826</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>258772141536</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
+      <c r="C20">
+        <v>109120641</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>258769238432</v>
       </c>
-      <c r="C21" t="s">
-        <v>91</v>
+      <c r="C21">
+        <v>88210439</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>258768683264</v>
       </c>
-      <c r="C22" t="s">
-        <v>95</v>
+      <c r="C22">
+        <v>399351208</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>257952256577</v>
       </c>
-      <c r="C23" t="s">
-        <v>99</v>
+      <c r="C23">
+        <v>37778089</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>257949986961</v>
       </c>
-      <c r="C24" t="s">
-        <v>103</v>
+      <c r="C24">
+        <v>430425871</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>257947810993</v>
       </c>
-      <c r="C25" t="s">
-        <v>107</v>
+      <c r="C25">
+        <v>65231885</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>258761677072</v>
       </c>
-      <c r="C26" t="s">
-        <v>111</v>
+      <c r="C26">
+        <v>101683323</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>258760827056</v>
       </c>
-      <c r="C27" t="s">
-        <v>115</v>
+      <c r="C27">
+        <v>2090933</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>258760336784</v>
       </c>
-      <c r="C28" t="s">
-        <v>119</v>
+      <c r="C28">
+        <v>2800634</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>257945188289</v>
       </c>
-      <c r="C29" t="s">
-        <v>123</v>
+      <c r="C29">
+        <v>594250</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>257941349249</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
+      <c r="C30">
+        <v>241904392</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>257940525249</v>
       </c>
-      <c r="C31" t="s">
-        <v>131</v>
+      <c r="C31">
+        <v>128798482</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>257939681521</v>
       </c>
-      <c r="C32" t="s">
-        <v>135</v>
+      <c r="C32">
+        <v>2490650</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>258751043280</v>
       </c>
-      <c r="C33" t="s">
-        <v>139</v>
+      <c r="C33">
+        <v>76748307</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>257936515393</v>
       </c>
-      <c r="C34" t="s">
-        <v>143</v>
+      <c r="C34">
+        <v>11171654</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>257936311873</v>
       </c>
-      <c r="C35" t="s">
-        <v>147</v>
+      <c r="C35">
+        <v>20734156</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>258749969936</v>
       </c>
-      <c r="C36" t="s">
-        <v>151</v>
+      <c r="C36">
+        <v>314859812</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>258748347440</v>
       </c>
-      <c r="C37" t="s">
-        <v>155</v>
+      <c r="C37">
+        <v>472340421</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>258742923696</v>
       </c>
-      <c r="C38" t="s">
-        <v>159</v>
+      <c r="C38">
+        <v>1715161738</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>258741028272</v>
       </c>
-      <c r="C39" t="s">
-        <v>163</v>
+      <c r="C39">
+        <v>34570829</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>258740968752</v>
       </c>
-      <c r="C40" t="s">
-        <v>167</v>
+      <c r="C40">
+        <v>11933047</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>257926269889</v>
       </c>
-      <c r="C41" t="s">
-        <v>171</v>
+      <c r="C41">
+        <v>488371</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>257922918929</v>
       </c>
-      <c r="C42" t="s">
-        <v>175</v>
+      <c r="C42">
+        <v>23643593</v>
       </c>
       <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>176</v>
       </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>177</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>257922198401</v>
       </c>
-      <c r="C43" t="s">
-        <v>179</v>
+      <c r="C43">
+        <v>2487276</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>257922154369</v>
       </c>
-      <c r="C44" t="s">
-        <v>183</v>
+      <c r="C44">
+        <v>2548565</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>257921366385</v>
       </c>
-      <c r="C45" t="s">
-        <v>187</v>
+      <c r="C45">
+        <v>3552680</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>258734308560</v>
       </c>
-      <c r="C46" t="s">
-        <v>191</v>
+      <c r="C46">
+        <v>133098313</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>258734222736</v>
       </c>
-      <c r="C47" t="s">
-        <v>195</v>
+      <c r="C47">
+        <v>383384104</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>258734110992</v>
       </c>
-      <c r="C48" t="s">
-        <v>199</v>
+      <c r="C48">
+        <v>24117502</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>258733852352</v>
       </c>
-      <c r="C49" t="s">
-        <v>203</v>
+      <c r="C49">
+        <v>16114125</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>257919255009</v>
       </c>
-      <c r="C50" t="s">
-        <v>207</v>
+      <c r="C50">
+        <v>39341486</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>257918427713</v>
       </c>
-      <c r="C51" t="s">
-        <v>211</v>
+      <c r="C51">
+        <v>10719369</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>257917159361</v>
       </c>
-      <c r="C52" t="s">
-        <v>215</v>
+      <c r="C52">
+        <v>39765853</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>257916265425</v>
       </c>
-      <c r="C53" t="s">
-        <v>219</v>
+      <c r="C53">
+        <v>8863586</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>258729324864</v>
       </c>
-      <c r="C54" t="s">
-        <v>223</v>
+      <c r="C54">
+        <v>602225217</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>257915532017</v>
       </c>
-      <c r="C55" t="s">
-        <v>227</v>
+      <c r="C55">
+        <v>498940354</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>258726201072</v>
       </c>
-      <c r="C56" t="s">
-        <v>231</v>
+      <c r="C56">
+        <v>24368220</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>258726119232</v>
       </c>
-      <c r="C57" t="s">
-        <v>235</v>
+      <c r="C57">
+        <v>514813023</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>257912388641</v>
       </c>
-      <c r="C58" t="s">
-        <v>239</v>
+      <c r="C58">
+        <v>645843277</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>257909675569</v>
       </c>
-      <c r="C59" t="s">
-        <v>243</v>
+      <c r="C59">
+        <v>356218650</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>193</v>
+      </c>
+      <c r="K59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>258721570864</v>
       </c>
-      <c r="C60" t="s">
-        <v>247</v>
+      <c r="C60">
+        <v>81454025</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>257908276721</v>
       </c>
-      <c r="C61" t="s">
-        <v>251</v>
+      <c r="C61">
+        <v>385450687</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="K61" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
